--- a/biology/Histoire de la zoologie et de la botanique/Eduard_Rosenstock/Eduard_Rosenstock.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eduard_Rosenstock/Eduard_Rosenstock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eduard Rosenstock, est un collecteur et botaniste allemand né le 2 juin 1856 à Frankenberg et mort le 29 mai 1938 à Gotha[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eduard Rosenstock, est un collecteur et botaniste allemand né le 2 juin 1856 à Frankenberg et mort le 29 mai 1938 à Gotha.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de pasteur, il passe son baccalauréat (« Abitur ») en 1875 au lycée d'Hersfeld et devient professeur au lycée de Gotha près d'Erfurt.
-Il se spécialise dans les fougères qu'il a collectées en Amérique du Sud et centrale, à Java, en Nouvelle-Guinée et en Afrique de l'Est. Ses échantillons sont conservés au Fielding-Druce Herbarium (université d'Oxford), à l'Herbarium du Jardin botanique national de Belgique et à la collection botanique de Munich (Botanische Staatssammlung München). Il a aussi travaillé à la détermination des spécimens de différents herbiers en particulier de collecteurs français : ceux de l'herbier Roland Bonaparte, de l'herbier Boissier et notamment des échantillons de Nouvelle-Calédonie collectés par Isidore Franc et M. et Mme Le Rat, ou de Formose par le père Faurie. Il a entretenu une correspondance et échangé des échantillons avec les grandes institutions de l'époque[2].
+Il se spécialise dans les fougères qu'il a collectées en Amérique du Sud et centrale, à Java, en Nouvelle-Guinée et en Afrique de l'Est. Ses échantillons sont conservés au Fielding-Druce Herbarium (université d'Oxford), à l'Herbarium du Jardin botanique national de Belgique et à la collection botanique de Munich (Botanische Staatssammlung München). Il a aussi travaillé à la détermination des spécimens de différents herbiers en particulier de collecteurs français : ceux de l'herbier Roland Bonaparte, de l'herbier Boissier et notamment des échantillons de Nouvelle-Calédonie collectés par Isidore Franc et M. et Mme Le Rat, ou de Formose par le père Faurie. Il a entretenu une correspondance et échangé des échantillons avec les grandes institutions de l'époque.
 En 1912, il est nommé membre auxiliaire de l'Académie internationale de géographie botanique (sur proposition de Mgr Léveillé et de Roland Bonaparte).
 </t>
         </is>
@@ -544,13 +558,15 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De Donato, Terentii, et Servio, Vergilii explicatore, syntaxeos latinae interpretibus. - Marggrabovae : ex officina Czyganiana, 1886 (mémoire de thèse)
 Aspidium libanoticum n. sp. - Mémoires de l'Herbier Boissier no 9, 1900
 Hymenophyllaceae Maiayanae - Bulletin du jardin botanique Buitenzorg,1911
 Contribution à l'étude des Ptéridophytes de Colombie - Neuchâtel : Imprimerie Attinger, 1912 - Série : Mémoires de la Société neuchâteloise des Sciences naturelles - Vol.5 (Traduction Otto Fuhrmann)
-Articles dans la revue Repertorium novarum specierum regni vegetabilis[3] :
+Articles dans la revue Repertorium novarum specierum regni vegetabilis :
 Filices novae. I - 1907 - Volume 4, no 1, p. 2-6
 Filices novae. II - 1907 - Volume 4, no 19, p. 292-296
 Filices novae. III - 1908 - Volume 5, no 1, p. 13-17
@@ -581,7 +597,7 @@
 Filices novae a cl. Alfred et Curt Brade in Brasilia collectae. - 1925 - Volume 21, no 21, p. 343-349
 Filices novae a cl. Alfred et Curt Brade in Costarica collectae - 1925 - Volume 22, no 1, p. 2-23
 Filices novae a cl. Dr. O. Buchtien in Bolivia collectae. VI - 1928 - Volume 25, no 4 - p 56-64
-Articles dans la revue Hedwigia[4] :
+Articles dans la revue Hedwigia :
 Beiträge zur Pteridophytenflora Südbrasiliens II - 1907 - Volume 46 - p. 57-167
 Filices formosae novae a cl. Pe U. Faurie anno 1914 collectae - 1915 - Volume 56 - p. 333-348
 Filices novoguineenses novae a cl. G. Bamler anno 1914 collectae- 1915 - Volume 56 - p. 349-354
@@ -613,7 +629,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le genre Rodenstockia (Copel.) de la famille des Hyménophyllacées, lui a été dédié ainsi que les plantes suivantes :
 Alsophila rosenstockii Brause (1920) - Cyatheacée de Nouvelle-Guinée
